--- a/city_hunter_faq/data_sample.xlsx
+++ b/city_hunter_faq/data_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3120" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6460" yWindow="2720" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="回答マスタ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="283">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1775,6 +1775,10 @@
   </si>
   <si>
     <t>テキスト(x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1834,7 +1838,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1942,6 +1946,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -1952,8 +1978,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="130">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -2061,6 +2098,17 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="129" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2749,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2760,177 +2808,260 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="str">
+        <f>"db.insert({'text': '"&amp;A4&amp;"', 'label': "&amp;B4&amp;"})"</f>
+        <v>db.insert({'text': 'ストーリーについて', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D23" si="0">"db.insert({'text': '"&amp;A5&amp;"', 'label': "&amp;B5&amp;"})"</f>
+        <v>db.insert({'text': 'あらすじについて知りたい', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'あらすじ', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '話について', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'どんな話だっけ', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'どんなストーリーだったか', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'ストーリー', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '各話のあらすじ', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'どんな話か', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '登場人物', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '人物について', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'キャラクター', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'キャラについて', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '登場する人', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '主人公', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '人', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '人について', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'キャラ', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': '登場人物について', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
         <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'text': 'どんな人', 'label': 2})</v>
       </c>
     </row>
   </sheetData>
@@ -2947,9 +3078,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -2958,12 +3091,12 @@
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2979,8 +3112,11 @@
       <c r="E3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2996,8 +3132,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="str">
+        <f>"db.insert({'category_id': "&amp;A4&amp;", 'text': '"&amp;C4&amp;"', 'label': "&amp;E4&amp;"})"</f>
+        <v>db.insert({'category_id': 1, 'text': 'りょうについて', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3013,8 +3153,12 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G68" si="0">"db.insert({'category_id': "&amp;A5&amp;", 'text': '"&amp;C5&amp;"', 'label': "&amp;E5&amp;"})"</f>
+        <v>db.insert({'category_id': 1, 'text': 'もっこりの人', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3030,8 +3174,12 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '主人公', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3047,8 +3195,12 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'シティーハンター', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3064,8 +3216,12 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '冴羽獠', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3081,8 +3237,12 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'リョウ', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3098,8 +3258,12 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'さえばりょう', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3115,8 +3279,12 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'りょうちゃん', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3132,8 +3300,12 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'さえば', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3149,8 +3321,12 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '冴羽', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3166,8 +3342,12 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '冴羽リョウ', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3183,8 +3363,12 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '冴羽りょう', 'label': 1})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3200,8 +3384,12 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '100tハンマー', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3217,8 +3405,12 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ハンマー', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3234,8 +3426,12 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '跳弾', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3251,8 +3447,12 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '槇村の妹', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3268,8 +3468,12 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ヒロイン', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3285,8 +3489,12 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '相棒', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3302,8 +3510,12 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '唯一もっこりしない女性', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3319,8 +3531,12 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '天誅', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3336,8 +3552,12 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'メインヒロイン', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3353,8 +3573,12 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '槇村香', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3370,8 +3594,12 @@
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'まきむらかおり', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3387,8 +3615,12 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'かおり', 'label': 2})</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3404,8 +3636,12 @@
       <c r="E28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '獠の相棒', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3421,8 +3657,12 @@
       <c r="E29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '最初に死んだ', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3438,8 +3678,12 @@
       <c r="E30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '死んだ', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3455,8 +3699,12 @@
       <c r="E31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'エンジェルダスト', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3472,8 +3720,12 @@
       <c r="E32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '冴子の相棒', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3489,8 +3741,12 @@
       <c r="E33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ユニオンテオーペ', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3506,8 +3762,12 @@
       <c r="E34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'コルト・ローマン', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3523,8 +3783,12 @@
       <c r="E35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '香の兄', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3540,8 +3804,12 @@
       <c r="E36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '元刑事', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3557,8 +3825,12 @@
       <c r="E37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '元警察官', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3574,8 +3846,12 @@
       <c r="E38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ジェネラルに殺された', 'label': 3})</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3591,8 +3867,12 @@
       <c r="E39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'スイーパー', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3608,8 +3888,12 @@
       <c r="E40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'アメリカNo.1のスイーパー', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3625,8 +3909,12 @@
       <c r="E41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'アメリカ人', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3642,8 +3930,12 @@
       <c r="E42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'エンジェルダストを打たれる', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3659,8 +3951,12 @@
       <c r="E43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'エンジェルダストを投与される', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3676,8 +3972,12 @@
       <c r="E44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'デザートイーグル', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3693,8 +3993,12 @@
       <c r="E45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '香に惚れる', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3710,8 +4014,12 @@
       <c r="E46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'カオリにほれる', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3727,8 +4035,12 @@
       <c r="E47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'かおりにほれる', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3744,8 +4056,12 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '恋人のいる女性に手を出す', 'label': 4})</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3761,8 +4077,12 @@
       <c r="E49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ファルコン', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3778,8 +4098,12 @@
       <c r="E50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '元傭兵', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3795,8 +4119,12 @@
       <c r="E51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '獠の互角', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3812,8 +4140,12 @@
       <c r="E52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '喫茶キャッツアイの店主', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3829,8 +4161,12 @@
       <c r="E53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '伊集院隼人', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3846,8 +4182,12 @@
       <c r="E54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '海坊主', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3863,8 +4203,12 @@
       <c r="E55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'バズーカ', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3880,8 +4224,12 @@
       <c r="E56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '機関銃', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3897,8 +4245,12 @@
       <c r="E57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '銃火器', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3914,8 +4266,12 @@
       <c r="E58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'トラップの名手', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3931,8 +4287,12 @@
       <c r="E59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'たこ坊主', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3948,8 +4308,12 @@
       <c r="E60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'タコ坊主', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3965,8 +4329,12 @@
       <c r="E61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': 'ハチ公', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3982,8 +4350,12 @@
       <c r="E62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '猫が苦手', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3999,8 +4371,12 @@
       <c r="E63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '女性が苦手', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4016,8 +4392,12 @@
       <c r="E64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '弱視', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4033,8 +4413,12 @@
       <c r="E65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '失明', 'label': 5})</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4050,8 +4434,12 @@
       <c r="E66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '苗字は不明', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4067,8 +4455,12 @@
       <c r="E67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '海坊主と結婚', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>1</v>
       </c>
@@ -4084,8 +4476,12 @@
       <c r="E68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'category_id': 1, 'text': '喫茶キャッツアイ', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4101,8 +4497,12 @@
       <c r="E69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="str">
+        <f t="shared" ref="G69:G132" si="1">"db.insert({'category_id': "&amp;A69&amp;", 'text': '"&amp;C69&amp;"', 'label': "&amp;E69&amp;"})"</f>
+        <v>db.insert({'category_id': 1, 'text': '海坊主に育てられた', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4118,8 +4518,12 @@
       <c r="E70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '美樹', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4135,8 +4539,12 @@
       <c r="E71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '海坊主の相棒', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4152,8 +4560,12 @@
       <c r="E72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'みき', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4169,8 +4581,12 @@
       <c r="E73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '美人スイーパー', 'label': 6})</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4186,8 +4602,12 @@
       <c r="E74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '怪盗305号', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4203,8 +4623,12 @@
       <c r="E75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '怪盗', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4220,8 +4644,12 @@
       <c r="E76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '空飛ぶオシリ', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4237,8 +4665,12 @@
       <c r="E77">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '空飛ぶお尻', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4254,8 +4686,12 @@
       <c r="E78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'そらとぶおしり', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4271,8 +4707,12 @@
       <c r="E79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '麻生 かすみ', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4288,8 +4728,12 @@
       <c r="E80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'かすみ', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4305,8 +4749,12 @@
       <c r="E81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '麻生', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4322,8 +4770,12 @@
       <c r="E82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'あそう かすみ', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4339,8 +4791,12 @@
       <c r="E83">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'レオタード', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4356,8 +4812,12 @@
       <c r="E84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '黒いチューリップ', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4373,8 +4833,12 @@
       <c r="E85">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '崇司', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4390,8 +4854,12 @@
       <c r="E86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '獠に心を奪われた', 'label': 7})</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4407,8 +4875,12 @@
       <c r="E87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '警視庁のメギツネ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4424,8 +4896,12 @@
       <c r="E88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '警視庁の女狐', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4441,8 +4917,12 @@
       <c r="E89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'めぎつね', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4458,8 +4938,12 @@
       <c r="E90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '女狐', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4475,8 +4959,12 @@
       <c r="E91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '美人刑事', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4492,8 +4980,12 @@
       <c r="E92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'のがみさえこ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4509,8 +5001,12 @@
       <c r="E93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '野上 冴子', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4526,8 +5022,12 @@
       <c r="E94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'さえこ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4543,8 +5043,12 @@
       <c r="E95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'サエコ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4560,8 +5064,12 @@
       <c r="E96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'のがみ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4577,8 +5085,12 @@
       <c r="E97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '槇村秀幸の同僚', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4594,8 +5106,12 @@
       <c r="E98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '色仕掛', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4611,8 +5127,12 @@
       <c r="E99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'いろじかけ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4628,8 +5148,12 @@
       <c r="E100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '投げナイフ', 'label': 8})</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4645,8 +5169,12 @@
       <c r="E101">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'さえこの妹', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4662,8 +5190,12 @@
       <c r="E102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '冴子の妹', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4679,8 +5211,12 @@
       <c r="E103">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'さえこのいもうと', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4696,8 +5232,12 @@
       <c r="E104">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '野上 麗香', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4713,8 +5253,12 @@
       <c r="E105">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'のがみれいか', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4730,8 +5274,12 @@
       <c r="E106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'のがみ れいか', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4747,8 +5295,12 @@
       <c r="E107">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'れいか', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4764,8 +5316,12 @@
       <c r="E108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '元刑事で探偵', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4781,8 +5337,12 @@
       <c r="E109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '探偵', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4798,8 +5358,12 @@
       <c r="E110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'RN探偵社', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4815,8 +5379,12 @@
       <c r="E111">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '友村刑事の相棒', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4832,8 +5400,12 @@
       <c r="E112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '隣のマンション', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4849,8 +5421,12 @@
       <c r="E113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'となりのマンション', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4866,8 +5442,12 @@
       <c r="E114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '男嫌い', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4883,8 +5463,12 @@
       <c r="E115">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': '獠が好き', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4900,8 +5484,12 @@
       <c r="E116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 1, 'text': 'リョウが好き', 'label': 9})</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2</v>
       </c>
@@ -4917,8 +5505,12 @@
       <c r="E117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': 'XYZ', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>2</v>
       </c>
@@ -4934,8 +5526,12 @@
       <c r="E118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '通り魔', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>2</v>
       </c>
@@ -4951,8 +5547,12 @@
       <c r="E119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '犯人探し', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>2</v>
       </c>
@@ -4968,8 +5568,12 @@
       <c r="E120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': 'トップレスバー', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>2</v>
       </c>
@@ -4985,8 +5589,12 @@
       <c r="E121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '指の間', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5002,8 +5610,12 @@
       <c r="E122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '指と指', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5019,8 +5631,12 @@
       <c r="E123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '指の骨の間', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2</v>
       </c>
@@ -5036,8 +5652,12 @@
       <c r="E124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '菜摘', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>2</v>
       </c>
@@ -5053,8 +5673,12 @@
       <c r="E125">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '私が、私がこの手で、妹の仇を討ってやるわ！', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>2</v>
       </c>
@@ -5070,8 +5694,12 @@
       <c r="E126">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': 'おたくが手を汚すほどの値打ちもない', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2</v>
       </c>
@@ -5087,8 +5715,12 @@
       <c r="E127">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': 'あいつは、おたくが手を汚すほどの値打ちもない。だからこそ、俺のような男がいるのさ', 'label': 10})</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>2</v>
       </c>
@@ -5104,8 +5736,12 @@
       <c r="E128">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '私を殺して！！美女に照準は似合わない', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>2</v>
       </c>
@@ -5121,8 +5757,12 @@
       <c r="E129">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '第2話', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>2</v>
       </c>
@@ -5138,8 +5778,12 @@
       <c r="E130">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '清水美津子', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>2</v>
       </c>
@@ -5155,8 +5799,12 @@
       <c r="E131">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': 'しみずなつこ', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>2</v>
       </c>
@@ -5172,8 +5820,12 @@
       <c r="E132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="str">
+        <f t="shared" si="1"/>
+        <v>db.insert({'category_id': 2, 'text': '去勢薬', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>2</v>
       </c>
@@ -5189,8 +5841,12 @@
       <c r="E133">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="str">
+        <f t="shared" ref="G133:G196" si="2">"db.insert({'category_id': "&amp;A133&amp;", 'text': '"&amp;C133&amp;"', 'label': "&amp;E133&amp;"})"</f>
+        <v>db.insert({'category_id': 2, 'text': '去勢', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>2</v>
       </c>
@@ -5206,8 +5862,12 @@
       <c r="E134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '死の商人', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>2</v>
       </c>
@@ -5223,8 +5883,12 @@
       <c r="E135">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '私を殺して', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>2</v>
       </c>
@@ -5240,8 +5904,12 @@
       <c r="E136">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'モハメド', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>2</v>
       </c>
@@ -5257,8 +5925,12 @@
       <c r="E137">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '私……ワクチンが完成したら、あなたのこと、研究してみます……', 'label': 11})</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>2</v>
       </c>
@@ -5274,8 +5946,12 @@
       <c r="E138">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '愛よ消えないで！明日へのテンカウント」', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>2</v>
       </c>
@@ -5291,8 +5967,12 @@
       <c r="E139">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '愛よ消えないで！', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>2</v>
       </c>
@@ -5308,8 +5988,12 @@
       <c r="E140">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'ボクシング', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>2</v>
       </c>
@@ -5325,8 +6009,12 @@
       <c r="E141">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'ボクサー', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5342,8 +6030,12 @@
       <c r="E142">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '稲垣', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>2</v>
       </c>
@@ -5359,8 +6051,12 @@
       <c r="E143">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'いながき', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>2</v>
       </c>
@@ -5376,8 +6072,12 @@
       <c r="E144">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '荻野', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5393,8 +6093,12 @@
       <c r="E145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '岩崎めぐみ', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>2</v>
       </c>
@@ -5410,8 +6114,12 @@
       <c r="E146">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '女医', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>2</v>
       </c>
@@ -5427,8 +6135,12 @@
       <c r="E147">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'チャンピオン', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>2</v>
       </c>
@@ -5444,8 +6156,12 @@
       <c r="E148">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'タイトルマッチ', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>2</v>
       </c>
@@ -5461,8 +6177,12 @@
       <c r="E149">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '狙撃', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>2</v>
       </c>
@@ -5478,8 +6198,12 @@
       <c r="E150">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'こめかみに狙撃', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>2</v>
       </c>
@@ -5495,8 +6219,12 @@
       <c r="E151">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'おたくの命がある限り、俺を恋人だと思ってくれ', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>2</v>
       </c>
@@ -5512,8 +6240,12 @@
       <c r="E152">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'こいつを貴様の耳にぶち込んでやる', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>2</v>
       </c>
@@ -5529,8 +6261,12 @@
       <c r="E153">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '第3話', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>2</v>
       </c>
@@ -5546,8 +6282,12 @@
       <c r="E154">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '純金の弾は貫通せずに、貴様の頭蓋骨にへばり付く', 'label': 12})</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>2</v>
       </c>
@@ -5563,8 +6303,12 @@
       <c r="E155">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '美女蒸発!!　ブティックは闇への誘い', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>2</v>
       </c>
@@ -5580,8 +6324,12 @@
       <c r="E156">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '第4話', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>2</v>
       </c>
@@ -5597,8 +6345,12 @@
       <c r="E157">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '美女が行方不明', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>2</v>
       </c>
@@ -5614,8 +6366,12 @@
       <c r="E158">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'かおり初登場', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>2</v>
       </c>
@@ -5631,8 +6387,12 @@
       <c r="E159">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '香が初登場', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>2</v>
       </c>
@@ -5648,8 +6408,12 @@
       <c r="E160">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'ブティック・オルフェ', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>2</v>
       </c>
@@ -5665,8 +6429,12 @@
       <c r="E161">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '更衣室に落とし穴', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>2</v>
       </c>
@@ -5682,8 +6450,12 @@
       <c r="E162">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'マジックミラー', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>2</v>
       </c>
@@ -5699,8 +6471,12 @@
       <c r="E163">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '槇村香の初登場', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>2</v>
       </c>
@@ -5716,8 +6492,12 @@
       <c r="E164">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '10ｔハンマー', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>2</v>
       </c>
@@ -5733,8 +6513,12 @@
       <c r="E165">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'まだ言うか！俺は女だ！', 'label': 13})</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>2</v>
       </c>
@@ -5750,8 +6534,12 @@
       <c r="E166">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'グッバイ槇村　雨の夜に涙のバースデー', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>2</v>
       </c>
@@ -5767,8 +6555,12 @@
       <c r="E167">
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '赤いペガサス', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>2</v>
       </c>
@@ -5784,8 +6576,12 @@
       <c r="E168">
         <v>14</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '相棒の死', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>2</v>
       </c>
@@ -5801,8 +6597,12 @@
       <c r="E169">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '槇村が死ぬ', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>2</v>
       </c>
@@ -5818,8 +6618,12 @@
       <c r="E170">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'ジェネラル', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>2</v>
       </c>
@@ -5835,8 +6639,12 @@
       <c r="E171">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '新しい相棒', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>2</v>
       </c>
@@ -5852,8 +6660,12 @@
       <c r="E172">
         <v>14</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '来年のバースデーは、地獄で祝うことになるかもしれんぞ', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>2</v>
       </c>
@@ -5869,8 +6681,12 @@
       <c r="E173">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '槇村 死亡', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>2</v>
       </c>
@@ -5886,8 +6702,12 @@
       <c r="E174">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '香の過去', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>2</v>
       </c>
@@ -5903,8 +6723,12 @@
       <c r="E175">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'かおりの過去', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>2</v>
       </c>
@@ -5920,8 +6744,12 @@
       <c r="E176">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '悪魔に魂を売る気はない。悪魔はドブネズミに劣る！', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>2</v>
       </c>
@@ -5937,8 +6765,12 @@
       <c r="E177">
         <v>14</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'しばらくの間、地獄は寂しいかもしれんが、すぐに賑やかにしてやるよ……槇村', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>2</v>
       </c>
@@ -5954,8 +6786,12 @@
       <c r="E178">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '第5話', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>2</v>
       </c>
@@ -5971,8 +6807,12 @@
       <c r="E179">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '地獄は寂しい', 'label': 14})</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>2</v>
       </c>
@@ -5988,8 +6828,12 @@
       <c r="E180">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '恋しない女優　希望へのラストショット', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>2</v>
       </c>
@@ -6005,8 +6849,12 @@
       <c r="E181">
         <v>15</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '佐藤由美子', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>2</v>
       </c>
@@ -6022,8 +6870,12 @@
       <c r="E182">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '女優', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>2</v>
       </c>
@@ -6039,8 +6891,12 @@
       <c r="E183">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '海坊主 初登場', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>2</v>
       </c>
@@ -6056,8 +6912,12 @@
       <c r="E184">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '恋人', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>2</v>
       </c>
@@ -6073,8 +6933,12 @@
       <c r="E185">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '恋人をひきずる', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>2</v>
       </c>
@@ -6090,8 +6954,12 @@
       <c r="E186">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '死んだ恋人', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>2</v>
       </c>
@@ -6107,8 +6975,12 @@
       <c r="E187">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'ボディーガード', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>2</v>
       </c>
@@ -6124,8 +6996,12 @@
       <c r="E188">
         <v>15</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '撮影中に殺してもらう', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>2</v>
       </c>
@@ -6141,8 +7017,12 @@
       <c r="E189">
         <v>15</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'また、死にたくなった呼んでくれ。女性へのアフターサービスは、万全なんだ', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>2</v>
       </c>
@@ -6158,8 +7038,12 @@
       <c r="E190">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '女性へのアフターサービス', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>2</v>
       </c>
@@ -6175,8 +7059,12 @@
       <c r="E191">
         <v>15</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '女優の話', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>2</v>
       </c>
@@ -6192,8 +7080,12 @@
       <c r="E192">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="G192" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '第6話', 'label': 15})</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>2</v>
       </c>
@@ -6209,8 +7101,12 @@
       <c r="E193">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="G193" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '心ふるえる銃声　悲しきロンリーガール', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>2</v>
       </c>
@@ -6226,8 +7122,12 @@
       <c r="E194">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="G194" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '運転手', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>2</v>
       </c>
@@ -6243,8 +7143,12 @@
       <c r="E195">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': '萩尾', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>2</v>
       </c>
@@ -6260,8 +7164,12 @@
       <c r="E196">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" t="str">
+        <f t="shared" si="2"/>
+        <v>db.insert({'category_id': 2, 'text': 'はぎお', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>2</v>
       </c>
@@ -6277,8 +7185,12 @@
       <c r="E197">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" t="str">
+        <f t="shared" ref="G197:G232" si="3">"db.insert({'category_id': "&amp;A197&amp;", 'text': '"&amp;C197&amp;"', 'label': "&amp;E197&amp;"})"</f>
+        <v>db.insert({'category_id': 2, 'text': 'あまち', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>2</v>
       </c>
@@ -6294,8 +7206,12 @@
       <c r="E198">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="G198" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '天知', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>2</v>
       </c>
@@ -6311,8 +7227,12 @@
       <c r="E199">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="G199" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '次期総理', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>2</v>
       </c>
@@ -6328,8 +7248,12 @@
       <c r="E200">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="G200" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '心が震えた', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>2</v>
       </c>
@@ -6345,8 +7269,12 @@
       <c r="E201">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="G201" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'こころがふるえた', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>2</v>
       </c>
@@ -6362,8 +7290,12 @@
       <c r="E202">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="G202" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '脅迫', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>2</v>
       </c>
@@ -6379,8 +7311,12 @@
       <c r="E203">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="G203" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '偽装殺人', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>2</v>
       </c>
@@ -6396,8 +7332,12 @@
       <c r="E204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="G204" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '男からの依頼', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>2</v>
       </c>
@@ -6413,8 +7353,12 @@
       <c r="E205">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="G205" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'マンホールがずれる', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>2</v>
       </c>
@@ -6430,8 +7374,12 @@
       <c r="E206">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="G206" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'こ、殺してやる！誰だ俺をハメやがった奴は！', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>2</v>
       </c>
@@ -6447,8 +7395,12 @@
       <c r="E207">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="G207" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '第7話', 'label': 16})</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>2</v>
       </c>
@@ -6464,8 +7416,12 @@
       <c r="E208">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="G208" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '美人に百発百中(ワンホールショット)？！　女刑事には手を出すな」', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>2</v>
       </c>
@@ -6481,8 +7437,12 @@
       <c r="E209">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="G209" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '野上冴子 初登場', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>2</v>
       </c>
@@ -6498,8 +7458,12 @@
       <c r="E210">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="G210" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'さえこ 初登場', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>2</v>
       </c>
@@ -6515,8 +7479,12 @@
       <c r="E211">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="G211" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'さえこ初登場', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>2</v>
       </c>
@@ -6532,8 +7500,12 @@
       <c r="E212">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="G212" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ウラメニア共和国のスパイ', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>2</v>
       </c>
@@ -6549,8 +7521,12 @@
       <c r="E213">
         <v>17</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="G213" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'マイクロチップ', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>2</v>
       </c>
@@ -6566,8 +7542,12 @@
       <c r="E214">
         <v>17</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="G214" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '秘宝展', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>2</v>
       </c>
@@ -6583,8 +7563,12 @@
       <c r="E215">
         <v>17</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="G215" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '宝冠', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>2</v>
       </c>
@@ -6600,8 +7584,12 @@
       <c r="E216">
         <v>17</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="G216" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ワンホールショット', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>2</v>
       </c>
@@ -6617,8 +7605,12 @@
       <c r="E217">
         <v>17</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="G217" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ワン・オブ・サウザンド', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>2</v>
       </c>
@@ -6634,8 +7626,12 @@
       <c r="E218">
         <v>17</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="G218" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '第8話', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>2</v>
       </c>
@@ -6651,8 +7647,12 @@
       <c r="E219">
         <v>17</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="G219" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '女刑事', 'label': 17})</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>2</v>
       </c>
@@ -6668,8 +7668,12 @@
       <c r="E220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="G220" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ギャンブルクィーン　華麗なる恋の賭け', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>2</v>
       </c>
@@ -6685,8 +7689,12 @@
       <c r="E221">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="G221" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '鬼英会', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>2</v>
       </c>
@@ -6702,8 +7710,12 @@
       <c r="E222">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="G222" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'カジノ', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>2</v>
       </c>
@@ -6719,8 +7731,12 @@
       <c r="E223">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="G223" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '牧野陽子', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>2</v>
       </c>
@@ -6736,8 +7752,12 @@
       <c r="E224">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="G224" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'まきの', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>2</v>
       </c>
@@ -6753,8 +7773,12 @@
       <c r="E225">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="G225" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '高円会', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>2</v>
       </c>
@@ -6770,8 +7794,12 @@
       <c r="E226">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="G226" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ディーラー', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>2</v>
       </c>
@@ -6787,8 +7815,12 @@
       <c r="E227">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="G227" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ヴァンパイア竜', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>2</v>
       </c>
@@ -6804,8 +7836,12 @@
       <c r="E228">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="G228" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ギャンブラー', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>2</v>
       </c>
@@ -6821,8 +7857,12 @@
       <c r="E229">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="G229" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '竜', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>2</v>
       </c>
@@ -6838,8 +7878,12 @@
       <c r="E230">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': 'ノワールの13、お客様にお似合いのナンバーですわね', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>2</v>
       </c>
@@ -6855,8 +7899,12 @@
       <c r="E231">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '普通の女になったんだな、陽子……幸せにな', 'label': 18})</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>2</v>
       </c>
@@ -6871,6 +7919,10 @@
       </c>
       <c r="E232">
         <v>18</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'category_id': 2, 'text': '第9話', 'label': 18})</v>
       </c>
     </row>
   </sheetData>
